--- a/Code/Results/Cases/Case_2_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.80404388089172</v>
+        <v>8.017391377862316</v>
       </c>
       <c r="C2">
-        <v>6.363016516702445</v>
+        <v>6.018113802680668</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.00274459829258</v>
+        <v>22.12849206409117</v>
       </c>
       <c r="F2">
-        <v>29.81026240615205</v>
+        <v>38.85650716094047</v>
       </c>
       <c r="G2">
-        <v>18.24584350859394</v>
+        <v>25.8361480638682</v>
       </c>
       <c r="H2">
-        <v>8.122263107191605</v>
+        <v>13.67937791916493</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.804491085849616</v>
+        <v>7.89530771654847</v>
       </c>
       <c r="K2">
-        <v>10.53340542822579</v>
+        <v>7.878620275915256</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.70659039765276</v>
+        <v>17.66896689076781</v>
       </c>
       <c r="N2">
-        <v>12.0159316182413</v>
+        <v>18.40222474829963</v>
       </c>
       <c r="O2">
-        <v>12.69812937802724</v>
+        <v>20.40989766955055</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.07499057742341</v>
+        <v>7.738672606967256</v>
       </c>
       <c r="C3">
-        <v>6.193529157160793</v>
+        <v>5.958268909931895</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.20651388164256</v>
+        <v>22.02530026217837</v>
       </c>
       <c r="F3">
-        <v>28.83833488273868</v>
+        <v>38.79845731967963</v>
       </c>
       <c r="G3">
-        <v>18.15714608209654</v>
+        <v>25.93025796691386</v>
       </c>
       <c r="H3">
-        <v>8.205554535730501</v>
+        <v>13.72399933616677</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.832351165600173</v>
+        <v>7.905200320535685</v>
       </c>
       <c r="K3">
-        <v>10.0117970048503</v>
+        <v>7.642710755869878</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.98025338929138</v>
+        <v>17.54768505521361</v>
       </c>
       <c r="N3">
-        <v>12.18508318456619</v>
+        <v>18.45518949955821</v>
       </c>
       <c r="O3">
-        <v>12.78921228219187</v>
+        <v>20.48662678492748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.60181306990073</v>
+        <v>7.563355172737432</v>
       </c>
       <c r="C4">
-        <v>6.087114903937474</v>
+        <v>5.921061016371024</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.7093302973349</v>
+        <v>21.96641309066864</v>
       </c>
       <c r="F4">
-        <v>28.248512069958</v>
+        <v>38.77233371705716</v>
       </c>
       <c r="G4">
-        <v>18.12484149259372</v>
+        <v>25.99568874018788</v>
       </c>
       <c r="H4">
-        <v>8.260881571941344</v>
+        <v>13.75326303998146</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.850025181617998</v>
+        <v>7.911602856321928</v>
       </c>
       <c r="K4">
-        <v>9.676502165435426</v>
+        <v>7.492636344383291</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.52048315755035</v>
+        <v>17.47585520772737</v>
       </c>
       <c r="N4">
-        <v>12.29163605125859</v>
+        <v>18.48930729277505</v>
       </c>
       <c r="O4">
-        <v>12.85509890493022</v>
+        <v>20.53756806936188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.40258264300526</v>
+        <v>7.49097121952632</v>
       </c>
       <c r="C5">
-        <v>6.043202372305259</v>
+        <v>5.905791312424662</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.50492621641157</v>
+        <v>21.94355919066978</v>
       </c>
       <c r="F5">
-        <v>28.01022683045335</v>
+        <v>38.76408988887717</v>
       </c>
       <c r="G5">
-        <v>18.1170388158513</v>
+        <v>26.02426733079965</v>
       </c>
       <c r="H5">
-        <v>8.284450801302919</v>
+        <v>13.76565784100288</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.857372043613903</v>
+        <v>7.914294748497524</v>
       </c>
       <c r="K5">
-        <v>9.536171595247122</v>
+        <v>7.430221016511041</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.32988864391877</v>
+        <v>17.44727204810579</v>
       </c>
       <c r="N5">
-        <v>12.33574659675987</v>
+        <v>18.50361329371662</v>
       </c>
       <c r="O5">
-        <v>12.88435078659853</v>
+        <v>20.55928911354027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.36911426245472</v>
+        <v>7.478898553996609</v>
       </c>
       <c r="C6">
-        <v>6.035878948531086</v>
+        <v>5.903249586429136</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.47088564358727</v>
+        <v>21.93983386333273</v>
       </c>
       <c r="F6">
-        <v>27.97079467531737</v>
+        <v>38.76286626185731</v>
       </c>
       <c r="G6">
-        <v>18.11606064669335</v>
+        <v>26.029128209857</v>
       </c>
       <c r="H6">
-        <v>8.288425415452419</v>
+        <v>13.76774436284918</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.85860076614452</v>
+        <v>7.914746742910086</v>
       </c>
       <c r="K6">
-        <v>9.512649395231886</v>
+        <v>7.419782680421472</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.29805285325493</v>
+        <v>17.44256809843448</v>
       </c>
       <c r="N6">
-        <v>12.34311310744467</v>
+        <v>18.50601314986881</v>
       </c>
       <c r="O6">
-        <v>12.88935022762401</v>
+        <v>20.56295395745728</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.59915209273972</v>
+        <v>7.562382631784273</v>
       </c>
       <c r="C7">
-        <v>6.086524843780905</v>
+        <v>5.92085550557362</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.7065805033062</v>
+        <v>21.96610022357565</v>
       </c>
       <c r="F7">
-        <v>28.24528964100883</v>
+        <v>38.77221280423993</v>
       </c>
       <c r="G7">
-        <v>18.12471483994627</v>
+        <v>25.99606641787197</v>
       </c>
       <c r="H7">
-        <v>8.261195330234566</v>
+        <v>13.7534282986717</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.850123676351769</v>
+        <v>7.911638824548007</v>
       </c>
       <c r="K7">
-        <v>9.674624457802352</v>
+        <v>7.491799609733355</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.51792549023351</v>
+        <v>17.47546690725156</v>
       </c>
       <c r="N7">
-        <v>12.2922281342666</v>
+        <v>18.48949859644975</v>
       </c>
       <c r="O7">
-        <v>12.85548381064454</v>
+        <v>20.53785711275462</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.55797174237484</v>
+        <v>7.922220862343685</v>
       </c>
       <c r="C8">
-        <v>6.305089258945578</v>
+        <v>5.997580856260671</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.73008700920359</v>
+        <v>22.0919946148232</v>
       </c>
       <c r="F8">
-        <v>29.47389158856211</v>
+        <v>38.83452131629334</v>
       </c>
       <c r="G8">
-        <v>18.21054033510323</v>
+        <v>25.86700542257808</v>
       </c>
       <c r="H8">
-        <v>8.150094854150261</v>
+        <v>13.69437633508443</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.81398048240612</v>
+        <v>7.898650651331374</v>
       </c>
       <c r="K8">
-        <v>10.35671794037335</v>
+        <v>7.798394611524559</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.45914180351013</v>
+        <v>17.62661667632374</v>
       </c>
       <c r="N8">
-        <v>12.07370356427209</v>
+        <v>18.42015614844649</v>
       </c>
       <c r="O8">
-        <v>12.72740459685651</v>
+        <v>20.4355585889906</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.23546953624197</v>
+        <v>8.590304149427935</v>
       </c>
       <c r="C9">
-        <v>6.713356250145809</v>
+        <v>6.143967430550576</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.66063987239176</v>
+        <v>22.37348986265347</v>
       </c>
       <c r="F9">
-        <v>31.92486202102114</v>
+        <v>39.03179384262916</v>
       </c>
       <c r="G9">
-        <v>18.56322510403575</v>
+        <v>25.67492785716806</v>
       </c>
       <c r="H9">
-        <v>7.966869508665747</v>
+        <v>13.59336365980945</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.747524719432119</v>
+        <v>7.875776852388992</v>
       </c>
       <c r="K9">
-        <v>11.57225323448652</v>
+        <v>8.356002975074814</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.18698507662722</v>
+        <v>17.94281137721896</v>
       </c>
       <c r="N9">
-        <v>11.66597447934571</v>
+        <v>18.29679877473299</v>
       </c>
       <c r="O9">
-        <v>12.56004544550648</v>
+        <v>20.26537306064844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.34473804339846</v>
+        <v>9.053098292261037</v>
       </c>
       <c r="C10">
-        <v>6.998875036743778</v>
+        <v>6.248511427078</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.0206270911155</v>
+        <v>22.60014149472659</v>
       </c>
       <c r="F10">
-        <v>33.73478745671306</v>
+        <v>39.22177606864712</v>
       </c>
       <c r="G10">
-        <v>18.94519469554815</v>
+        <v>25.57143735408885</v>
       </c>
       <c r="H10">
-        <v>7.855512258474868</v>
+        <v>13.52814044602749</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.701271206492016</v>
+        <v>7.860539934060638</v>
       </c>
       <c r="K10">
-        <v>12.38809384341829</v>
+        <v>8.736524303800126</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.42931644441262</v>
+        <v>18.18559917245002</v>
       </c>
       <c r="N10">
-        <v>11.37826950743786</v>
+        <v>18.21379217195981</v>
       </c>
       <c r="O10">
-        <v>12.49496371344006</v>
+        <v>20.15893492894987</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.82283638749017</v>
+        <v>9.256645670424103</v>
       </c>
       <c r="C11">
-        <v>7.125268961781865</v>
+        <v>6.295310217771699</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.62486451478892</v>
+        <v>22.70726179299561</v>
       </c>
       <c r="F11">
-        <v>34.5573193621862</v>
+        <v>39.31778645921385</v>
       </c>
       <c r="G11">
-        <v>19.14747735937138</v>
+        <v>25.53261181363665</v>
       </c>
       <c r="H11">
-        <v>7.81042177674219</v>
+        <v>13.50041602150896</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.680759281613424</v>
+        <v>7.853945840204402</v>
       </c>
       <c r="K11">
-        <v>12.74211360364392</v>
+        <v>8.902851886639748</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.05507297392786</v>
+        <v>18.29797286081721</v>
       </c>
       <c r="N11">
-        <v>11.24977358856957</v>
+        <v>18.17767069429978</v>
       </c>
       <c r="O11">
-        <v>12.47945167830115</v>
+        <v>20.11456277381835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.00008955966146</v>
+        <v>9.332656691550858</v>
       </c>
       <c r="C12">
-        <v>7.172603451936821</v>
+        <v>6.312913710258193</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.85149223698378</v>
+        <v>22.74837607882073</v>
       </c>
       <c r="F12">
-        <v>34.8684793601721</v>
+        <v>39.35550148523335</v>
       </c>
       <c r="G12">
-        <v>19.22830070758426</v>
+        <v>25.5191024827933</v>
       </c>
       <c r="H12">
-        <v>7.794194907514454</v>
+        <v>13.49019700131206</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.673065630152234</v>
+        <v>7.851497100835616</v>
       </c>
       <c r="K12">
-        <v>12.87369273309841</v>
+        <v>8.964829537150282</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.28726967192512</v>
+        <v>18.34077272504161</v>
       </c>
       <c r="N12">
-        <v>11.20144284394637</v>
+        <v>18.16422695668088</v>
       </c>
       <c r="O12">
-        <v>12.47573422759181</v>
+        <v>20.09834314268864</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.96208321635667</v>
+        <v>9.316334795012974</v>
       </c>
       <c r="C13">
-        <v>7.162432995273969</v>
+        <v>6.309127882033786</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.8027824615065</v>
+        <v>22.73949735766775</v>
       </c>
       <c r="F13">
-        <v>34.80148228291103</v>
+        <v>39.34731883175726</v>
       </c>
       <c r="G13">
-        <v>19.21070438997694</v>
+        <v>25.52195880243613</v>
       </c>
       <c r="H13">
-        <v>7.797651149695005</v>
+        <v>13.49238541724304</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.674719352579914</v>
+        <v>7.852022335585357</v>
       </c>
       <c r="K13">
-        <v>12.84546536884657</v>
+        <v>8.951526812623458</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.23747277425687</v>
+        <v>18.33154454550885</v>
       </c>
       <c r="N13">
-        <v>11.21183739133534</v>
+        <v>18.16711188360416</v>
       </c>
       <c r="O13">
-        <v>12.47643683596161</v>
+        <v>20.10181037645714</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.83749498577681</v>
+        <v>9.262920886219053</v>
       </c>
       <c r="C14">
-        <v>7.12917392238078</v>
+        <v>6.296760887672502</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.64355360439396</v>
+        <v>22.71063342366799</v>
       </c>
       <c r="F14">
-        <v>34.5829260072918</v>
+        <v>39.32086220609269</v>
       </c>
       <c r="G14">
-        <v>19.15404147577491</v>
+        <v>25.53147644791099</v>
       </c>
       <c r="H14">
-        <v>7.809069504612072</v>
+        <v>13.4995696937526</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.680124855409572</v>
+        <v>7.85374341403945</v>
       </c>
       <c r="K14">
-        <v>12.75298849702872</v>
+        <v>8.907971182408755</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.07427103050776</v>
+        <v>18.30148927150016</v>
       </c>
       <c r="N14">
-        <v>11.24579090392932</v>
+        <v>18.176559971949</v>
       </c>
       <c r="O14">
-        <v>12.47910186651253</v>
+        <v>20.11321668127896</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.76068789761189</v>
+        <v>9.230062474060398</v>
       </c>
       <c r="C15">
-        <v>7.108732276198533</v>
+        <v>6.289170088599332</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.54573418205493</v>
+        <v>22.69302425152082</v>
       </c>
       <c r="F15">
-        <v>34.44900766604799</v>
+        <v>39.30483296320515</v>
       </c>
       <c r="G15">
-        <v>19.11988708194803</v>
+        <v>25.53746183036872</v>
       </c>
       <c r="H15">
-        <v>7.816175468814269</v>
+        <v>13.50400667910741</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.683445418712676</v>
+        <v>7.854803908691334</v>
       </c>
       <c r="K15">
-        <v>12.69602025218625</v>
+        <v>8.881160046637433</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.97368682544818</v>
+        <v>18.2831107129146</v>
       </c>
       <c r="N15">
-        <v>11.26663066514537</v>
+        <v>18.18237773333923</v>
       </c>
       <c r="O15">
-        <v>12.48101902901074</v>
+        <v>20.12027934928463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.31296131924068</v>
+        <v>9.039649863498601</v>
       </c>
       <c r="C16">
-        <v>6.990542345451092</v>
+        <v>6.245436965838983</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.98083842929719</v>
+        <v>22.59321942385352</v>
       </c>
       <c r="F16">
-        <v>33.68099899110181</v>
+        <v>39.21569275790959</v>
       </c>
       <c r="G16">
-        <v>18.93255985545406</v>
+        <v>25.57414131395871</v>
       </c>
       <c r="H16">
-        <v>7.85857501790686</v>
+        <v>13.52999144178389</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.70262215986132</v>
+        <v>7.860977643254855</v>
       </c>
       <c r="K16">
-        <v>12.36461162179189</v>
+        <v>8.725515199141491</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.38775161219228</v>
+        <v>18.17829145607274</v>
       </c>
       <c r="N16">
-        <v>11.38671371023057</v>
+        <v>18.21618568741044</v>
       </c>
       <c r="O16">
-        <v>12.49627211579036</v>
+        <v>20.16191629191468</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.03151800741533</v>
+        <v>8.921001887970629</v>
       </c>
       <c r="C17">
-        <v>6.917123013519652</v>
+        <v>6.218407234967022</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.63051084988032</v>
+        <v>22.5330017551254</v>
       </c>
       <c r="F17">
-        <v>33.20949063242248</v>
+        <v>39.16344948315381</v>
       </c>
       <c r="G17">
-        <v>18.82503892496927</v>
+        <v>25.59876139125848</v>
       </c>
       <c r="H17">
-        <v>7.886044162284837</v>
+        <v>13.54643050387247</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.714520360041236</v>
+        <v>7.864851268800339</v>
       </c>
       <c r="K17">
-        <v>12.15690398216208</v>
+        <v>8.62827259003598</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.03676719405309</v>
+        <v>18.11446024593796</v>
       </c>
       <c r="N17">
-        <v>11.46098063551491</v>
+        <v>18.2373447858331</v>
       </c>
       <c r="O17">
-        <v>12.50933080261918</v>
+        <v>20.188496600925</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.86714219892353</v>
+        <v>8.852105029324342</v>
       </c>
       <c r="C18">
-        <v>6.874567017532042</v>
+        <v>6.202789556730419</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.42765829012884</v>
+        <v>22.49874578546133</v>
       </c>
       <c r="F18">
-        <v>32.93822476438448</v>
+        <v>39.13430422223232</v>
       </c>
       <c r="G18">
-        <v>18.76587441905335</v>
+        <v>25.61369865683387</v>
       </c>
       <c r="H18">
-        <v>7.902364584322903</v>
+        <v>13.55606899047998</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.721413829042682</v>
+        <v>7.867111031582062</v>
       </c>
       <c r="K18">
-        <v>12.03582619430005</v>
+        <v>8.571705379638113</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.85990097290379</v>
+        <v>18.07792959787852</v>
       </c>
       <c r="N18">
-        <v>11.50392216672576</v>
+        <v>18.24966923250164</v>
       </c>
       <c r="O18">
-        <v>12.51816045372682</v>
+        <v>20.20416575241245</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.81105794869966</v>
+        <v>8.828667555094921</v>
       </c>
       <c r="C19">
-        <v>6.860102957859565</v>
+        <v>6.197489783757612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.358747260606</v>
+        <v>22.48721332005246</v>
       </c>
       <c r="F19">
-        <v>32.84637394215819</v>
+        <v>39.12459194047659</v>
       </c>
       <c r="G19">
-        <v>18.74629836856743</v>
+        <v>25.61888931302155</v>
       </c>
       <c r="H19">
-        <v>7.907978473420103</v>
+        <v>13.55936388305082</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.723756484770095</v>
+        <v>7.86788160853282</v>
       </c>
       <c r="K19">
-        <v>11.9945555858134</v>
+        <v>8.552444556804293</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.79971662851714</v>
+        <v>18.06559337908753</v>
       </c>
       <c r="N19">
-        <v>11.5185005450189</v>
+        <v>18.25386860758174</v>
       </c>
       <c r="O19">
-        <v>12.52137258339979</v>
+        <v>20.20953643519668</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.06173642987642</v>
+        <v>8.933700311601482</v>
       </c>
       <c r="C20">
-        <v>6.924972685284962</v>
+        <v>6.221291999496697</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.66794477464166</v>
+        <v>22.53937293156554</v>
       </c>
       <c r="F20">
-        <v>33.25969195368828</v>
+        <v>39.16891748303053</v>
       </c>
       <c r="G20">
-        <v>18.83620653301831</v>
+        <v>25.59606013508018</v>
       </c>
       <c r="H20">
-        <v>7.883065781355418</v>
+        <v>13.54466158147202</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.713248624188101</v>
+        <v>7.864435629566849</v>
       </c>
       <c r="K20">
-        <v>12.17918159846904</v>
+        <v>8.63869028911734</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.06935777615145</v>
+        <v>18.12123643132334</v>
       </c>
       <c r="N20">
-        <v>11.45305159674541</v>
+        <v>18.23507640188576</v>
       </c>
       <c r="O20">
-        <v>12.50780327590696</v>
+        <v>20.18562765545663</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.87419230985559</v>
+        <v>9.278639302862111</v>
       </c>
       <c r="C21">
-        <v>7.138957445072506</v>
+        <v>6.300396652677328</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.69038297571785</v>
+        <v>22.71909675171928</v>
       </c>
       <c r="F21">
-        <v>34.64713123961749</v>
+        <v>39.32859647702384</v>
       </c>
       <c r="G21">
-        <v>19.17056925471073</v>
+        <v>25.52864845777346</v>
       </c>
       <c r="H21">
-        <v>7.805692249148781</v>
+        <v>13.4974519104353</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.678535145014781</v>
+        <v>7.853236582261816</v>
       </c>
       <c r="K21">
-        <v>12.78021863599555</v>
+        <v>8.920792100467406</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.12233609932188</v>
+        <v>18.31031079489712</v>
       </c>
       <c r="N21">
-        <v>11.23580915533924</v>
+        <v>18.1737784777032</v>
       </c>
       <c r="O21">
-        <v>12.47825950467858</v>
+        <v>20.10985053744402</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.38308686622685</v>
+        <v>9.497827646081113</v>
       </c>
       <c r="C22">
-        <v>7.275720549198851</v>
+        <v>6.3514031450448</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.34584558075451</v>
+        <v>22.83975007562245</v>
       </c>
       <c r="F22">
-        <v>35.55199982094155</v>
+        <v>39.44086032107748</v>
       </c>
       <c r="G22">
-        <v>19.4137541094317</v>
+        <v>25.49154763596107</v>
       </c>
       <c r="H22">
-        <v>7.760091031771013</v>
+        <v>13.46822739974464</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.65627671697146</v>
+        <v>7.846198802010735</v>
       </c>
       <c r="K22">
-        <v>13.15856905128101</v>
+        <v>9.099279709904991</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.78939149830759</v>
+        <v>18.4353034400673</v>
       </c>
       <c r="N22">
-        <v>11.09573261997033</v>
+        <v>18.135084214216</v>
       </c>
       <c r="O22">
-        <v>12.47158328790932</v>
+        <v>20.06372534313076</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.11349402129801</v>
+        <v>9.381433724410375</v>
       </c>
       <c r="C23">
-        <v>7.203017916972962</v>
+        <v>6.324246366934956</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.99720904361847</v>
+        <v>22.77507217501672</v>
       </c>
       <c r="F23">
-        <v>35.06928504275278</v>
+        <v>39.38022704469946</v>
       </c>
       <c r="G23">
-        <v>19.28167020351303</v>
+        <v>25.51071056578107</v>
       </c>
       <c r="H23">
-        <v>7.783958194482635</v>
+        <v>13.48367601505828</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.668118009733691</v>
+        <v>7.849929309976952</v>
       </c>
       <c r="K23">
-        <v>12.95796422563565</v>
+        <v>9.004565670439726</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.43588727485929</v>
+        <v>18.36847271403654</v>
       </c>
       <c r="N23">
-        <v>11.17032486389528</v>
+        <v>18.1556112584147</v>
       </c>
       <c r="O23">
-        <v>12.47394711113184</v>
+        <v>20.08803178328552</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.04808268848551</v>
+        <v>8.927961481556041</v>
       </c>
       <c r="C24">
-        <v>6.921424925120922</v>
+        <v>6.219988039495855</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.65102538814933</v>
+        <v>22.53649138688628</v>
       </c>
       <c r="F24">
-        <v>33.23699651092635</v>
+        <v>39.16644262615565</v>
       </c>
       <c r="G24">
-        <v>18.83114941050628</v>
+        <v>25.59727893494052</v>
       </c>
       <c r="H24">
-        <v>7.884410666180769</v>
+        <v>13.54546072737108</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.713823410601311</v>
+        <v>7.864623437992887</v>
       </c>
       <c r="K24">
-        <v>12.1691150692048</v>
+        <v>8.633982504145816</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.05462931288951</v>
+        <v>18.11817239609111</v>
       </c>
       <c r="N24">
-        <v>11.45663555254199</v>
+        <v>18.23610144042452</v>
       </c>
       <c r="O24">
-        <v>12.50848976269371</v>
+        <v>20.18692349788251</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.80334970817528</v>
+        <v>8.414160016510756</v>
       </c>
       <c r="C25">
-        <v>6.605309941018975</v>
+        <v>6.104856518901243</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.14791505868312</v>
+        <v>22.29375730743153</v>
       </c>
       <c r="F25">
-        <v>31.2591227275585</v>
+        <v>38.97045470074751</v>
       </c>
       <c r="G25">
-        <v>18.44692608733851</v>
+        <v>25.72031168885837</v>
       </c>
       <c r="H25">
-        <v>8.012517499247194</v>
+        <v>13.61910967085952</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.765041932135757</v>
+        <v>7.881688369654071</v>
       </c>
       <c r="K25">
-        <v>11.25682175154628</v>
+        <v>8.21010745760629</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.73321246136637</v>
+        <v>17.85531416824893</v>
       </c>
       <c r="N25">
-        <v>11.77413337027989</v>
+        <v>18.32882624915445</v>
       </c>
       <c r="O25">
-        <v>12.59566193664421</v>
+        <v>20.30815061395602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.017391377862316</v>
+        <v>11.80404388089172</v>
       </c>
       <c r="C2">
-        <v>6.018113802680668</v>
+        <v>6.363016516702224</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.12849206409117</v>
+        <v>18.00274459829265</v>
       </c>
       <c r="F2">
-        <v>38.85650716094047</v>
+        <v>29.81026240615214</v>
       </c>
       <c r="G2">
-        <v>25.8361480638682</v>
+        <v>18.24584350859393</v>
       </c>
       <c r="H2">
-        <v>13.67937791916493</v>
+        <v>8.1222631071916</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.89530771654847</v>
+        <v>4.80449108584965</v>
       </c>
       <c r="K2">
-        <v>7.878620275915256</v>
+        <v>10.53340542822576</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.66896689076781</v>
+        <v>14.7065903976528</v>
       </c>
       <c r="N2">
-        <v>18.40222474829963</v>
+        <v>12.01593161824127</v>
       </c>
       <c r="O2">
-        <v>20.40989766955055</v>
+        <v>12.69812937802724</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.738672606967256</v>
+        <v>11.07499057742333</v>
       </c>
       <c r="C3">
-        <v>5.958268909931895</v>
+        <v>6.193529157160889</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.02530026217837</v>
+        <v>17.20651388164242</v>
       </c>
       <c r="F3">
-        <v>38.79845731967963</v>
+        <v>28.83833488273853</v>
       </c>
       <c r="G3">
-        <v>25.93025796691386</v>
+        <v>18.15714608209644</v>
       </c>
       <c r="H3">
-        <v>13.72399933616677</v>
+        <v>8.205554535730569</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.905200320535685</v>
+        <v>4.832351165600138</v>
       </c>
       <c r="K3">
-        <v>7.642710755869878</v>
+        <v>10.01179700485029</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.54768505521361</v>
+        <v>13.98025338929133</v>
       </c>
       <c r="N3">
-        <v>18.45518949955821</v>
+        <v>12.18508318456615</v>
       </c>
       <c r="O3">
-        <v>20.48662678492748</v>
+        <v>12.78921228219187</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.563355172737432</v>
+        <v>10.6018130699007</v>
       </c>
       <c r="C4">
-        <v>5.921061016371024</v>
+        <v>6.087114903937452</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.96641309066864</v>
+        <v>16.70933029733484</v>
       </c>
       <c r="F4">
-        <v>38.77233371705716</v>
+        <v>28.24851206995802</v>
       </c>
       <c r="G4">
-        <v>25.99568874018788</v>
+        <v>18.1248414925939</v>
       </c>
       <c r="H4">
-        <v>13.75326303998146</v>
+        <v>8.260881571941406</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.911602856321928</v>
+        <v>4.850025181617963</v>
       </c>
       <c r="K4">
-        <v>7.492636344383291</v>
+        <v>9.676502165435416</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.47585520772737</v>
+        <v>13.5204831575503</v>
       </c>
       <c r="N4">
-        <v>18.48930729277505</v>
+        <v>12.29163605125869</v>
       </c>
       <c r="O4">
-        <v>20.53756806936188</v>
+        <v>12.85509890493037</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.49097121952632</v>
+        <v>10.40258264300537</v>
       </c>
       <c r="C5">
-        <v>5.905791312424662</v>
+        <v>6.043202372305039</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.94355919066978</v>
+        <v>16.50492621641158</v>
       </c>
       <c r="F5">
-        <v>38.76408988887717</v>
+        <v>28.01022683045331</v>
       </c>
       <c r="G5">
-        <v>26.02426733079965</v>
+        <v>18.1170388158511</v>
       </c>
       <c r="H5">
-        <v>13.76565784100288</v>
+        <v>8.284450801302922</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.914294748497524</v>
+        <v>4.857372043613903</v>
       </c>
       <c r="K5">
-        <v>7.430221016511041</v>
+        <v>9.536171595247156</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.44727204810579</v>
+        <v>13.32988864391877</v>
       </c>
       <c r="N5">
-        <v>18.50361329371662</v>
+        <v>12.33574659675983</v>
       </c>
       <c r="O5">
-        <v>20.55928911354027</v>
+        <v>12.88435078659842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.478898553996609</v>
+        <v>10.36911426245472</v>
       </c>
       <c r="C6">
-        <v>5.903249586429136</v>
+        <v>6.035878948530966</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.93983386333273</v>
+        <v>16.47088564358723</v>
       </c>
       <c r="F6">
-        <v>38.76286626185731</v>
+        <v>27.97079467531741</v>
       </c>
       <c r="G6">
-        <v>26.029128209857</v>
+        <v>18.11606064669342</v>
       </c>
       <c r="H6">
-        <v>13.76774436284918</v>
+        <v>8.288425415452483</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.914746742910086</v>
+        <v>4.858600766144588</v>
       </c>
       <c r="K6">
-        <v>7.419782680421472</v>
+        <v>9.512649395231866</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.44256809843448</v>
+        <v>13.29805285325493</v>
       </c>
       <c r="N6">
-        <v>18.50601314986881</v>
+        <v>12.34311310744474</v>
       </c>
       <c r="O6">
-        <v>20.56295395745728</v>
+        <v>12.88935022762415</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.562382631784273</v>
+        <v>10.59915209273963</v>
       </c>
       <c r="C7">
-        <v>5.92085550557362</v>
+        <v>6.086524843781133</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.96610022357565</v>
+        <v>16.70658050330621</v>
       </c>
       <c r="F7">
-        <v>38.77221280423993</v>
+        <v>28.24528964100892</v>
       </c>
       <c r="G7">
-        <v>25.99606641787197</v>
+        <v>18.12471483994623</v>
       </c>
       <c r="H7">
-        <v>13.7534282986717</v>
+        <v>8.261195330234628</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.911638824548007</v>
+        <v>4.850123676351702</v>
       </c>
       <c r="K7">
-        <v>7.491799609733355</v>
+        <v>9.674624457802354</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.47546690725156</v>
+        <v>13.51792549023351</v>
       </c>
       <c r="N7">
-        <v>18.48949859644975</v>
+        <v>12.2922281342666</v>
       </c>
       <c r="O7">
-        <v>20.53785711275462</v>
+        <v>12.85548381064455</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.922220862343685</v>
+        <v>11.55797174237484</v>
       </c>
       <c r="C8">
-        <v>5.997580856260671</v>
+        <v>6.305089258945684</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.0919946148232</v>
+        <v>17.73008700920365</v>
       </c>
       <c r="F8">
-        <v>38.83452131629334</v>
+        <v>29.47389158856215</v>
       </c>
       <c r="G8">
-        <v>25.86700542257808</v>
+        <v>18.21054033510333</v>
       </c>
       <c r="H8">
-        <v>13.69437633508443</v>
+        <v>8.150094854150202</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.898650651331374</v>
+        <v>4.813980482406087</v>
       </c>
       <c r="K8">
-        <v>7.798394611524559</v>
+        <v>10.35671794037337</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.62661667632374</v>
+        <v>14.45914180351015</v>
       </c>
       <c r="N8">
-        <v>18.42015614844649</v>
+        <v>12.07370356427209</v>
       </c>
       <c r="O8">
-        <v>20.4355585889906</v>
+        <v>12.72740459685646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.590304149427935</v>
+        <v>13.23546953624197</v>
       </c>
       <c r="C9">
-        <v>6.143967430550576</v>
+        <v>6.713356250145831</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.37348986265347</v>
+        <v>19.66063987239177</v>
       </c>
       <c r="F9">
-        <v>39.03179384262916</v>
+        <v>31.9248620210211</v>
       </c>
       <c r="G9">
-        <v>25.67492785716806</v>
+        <v>18.56322510403581</v>
       </c>
       <c r="H9">
-        <v>13.59336365980945</v>
+        <v>7.966869508665679</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.875776852388992</v>
+        <v>4.747524719432185</v>
       </c>
       <c r="K9">
-        <v>8.356002975074814</v>
+        <v>11.57225323448652</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.94281137721896</v>
+        <v>16.18698507662723</v>
       </c>
       <c r="N9">
-        <v>18.29679877473299</v>
+        <v>11.66597447934571</v>
       </c>
       <c r="O9">
-        <v>20.26537306064844</v>
+        <v>12.56004544550647</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.053098292261037</v>
+        <v>14.34473804339841</v>
       </c>
       <c r="C10">
-        <v>6.248511427078</v>
+        <v>6.998875036743995</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.60014149472659</v>
+        <v>21.02062709111556</v>
       </c>
       <c r="F10">
-        <v>39.22177606864712</v>
+        <v>33.73478745671313</v>
       </c>
       <c r="G10">
-        <v>25.57143735408885</v>
+        <v>18.94519469554811</v>
       </c>
       <c r="H10">
-        <v>13.52814044602749</v>
+        <v>7.855512258474863</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.860539934060638</v>
+        <v>4.701271206492016</v>
       </c>
       <c r="K10">
-        <v>8.736524303800126</v>
+        <v>12.38809384341829</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.18559917245002</v>
+        <v>17.42931644441258</v>
       </c>
       <c r="N10">
-        <v>18.21379217195981</v>
+        <v>11.37826950743787</v>
       </c>
       <c r="O10">
-        <v>20.15893492894987</v>
+        <v>12.49496371344004</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.256645670424103</v>
+        <v>14.82283638749009</v>
       </c>
       <c r="C11">
-        <v>6.295310217771699</v>
+        <v>7.125268961781981</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.70726179299561</v>
+        <v>21.6248645147889</v>
       </c>
       <c r="F11">
-        <v>39.31778645921385</v>
+        <v>34.55731936218623</v>
       </c>
       <c r="G11">
-        <v>25.53261181363665</v>
+        <v>19.14747735937154</v>
       </c>
       <c r="H11">
-        <v>13.50041602150896</v>
+        <v>7.810421776742254</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.853945840204402</v>
+        <v>4.680759281613423</v>
       </c>
       <c r="K11">
-        <v>8.902851886639748</v>
+        <v>12.7421136036439</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.29797286081721</v>
+        <v>18.05507297392783</v>
       </c>
       <c r="N11">
-        <v>18.17767069429978</v>
+        <v>11.24977358856963</v>
       </c>
       <c r="O11">
-        <v>20.11456277381835</v>
+        <v>12.47945167830128</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.332656691550858</v>
+        <v>15.00008955966147</v>
       </c>
       <c r="C12">
-        <v>6.312913710258193</v>
+        <v>7.172603451936893</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.74837607882073</v>
+        <v>21.85149223698375</v>
       </c>
       <c r="F12">
-        <v>39.35550148523335</v>
+        <v>34.86847936017208</v>
       </c>
       <c r="G12">
-        <v>25.5191024827933</v>
+        <v>19.22830070758431</v>
       </c>
       <c r="H12">
-        <v>13.49019700131206</v>
+        <v>7.794194907514454</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.851497100835616</v>
+        <v>4.6730656301522</v>
       </c>
       <c r="K12">
-        <v>8.964829537150282</v>
+        <v>12.87369273309841</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.34077272504161</v>
+        <v>18.28726967192514</v>
       </c>
       <c r="N12">
-        <v>18.16422695668088</v>
+        <v>11.20144284394644</v>
       </c>
       <c r="O12">
-        <v>20.09834314268864</v>
+        <v>12.47573422759185</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.316334795012974</v>
+        <v>14.96208321635674</v>
       </c>
       <c r="C13">
-        <v>6.309127882033786</v>
+        <v>7.162432995273862</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.73949735766775</v>
+        <v>21.80278246150653</v>
       </c>
       <c r="F13">
-        <v>39.34731883175726</v>
+        <v>34.80148228291102</v>
       </c>
       <c r="G13">
-        <v>25.52195880243613</v>
+        <v>19.21070438997685</v>
       </c>
       <c r="H13">
-        <v>13.49238541724304</v>
+        <v>7.797651149694939</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.852022335585357</v>
+        <v>4.674719352579947</v>
       </c>
       <c r="K13">
-        <v>8.951526812623458</v>
+        <v>12.84546536884657</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.33154454550885</v>
+        <v>18.23747277425687</v>
       </c>
       <c r="N13">
-        <v>18.16711188360416</v>
+        <v>11.21183739133535</v>
       </c>
       <c r="O13">
-        <v>20.10181037645714</v>
+        <v>12.47643683596158</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.262920886219053</v>
+        <v>14.83749498577678</v>
       </c>
       <c r="C14">
-        <v>6.296760887672502</v>
+        <v>7.129173922381113</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.71063342366799</v>
+        <v>21.64355360439399</v>
       </c>
       <c r="F14">
-        <v>39.32086220609269</v>
+        <v>34.58292600729179</v>
       </c>
       <c r="G14">
-        <v>25.53147644791099</v>
+        <v>19.15404147577475</v>
       </c>
       <c r="H14">
-        <v>13.4995696937526</v>
+        <v>7.809069504612023</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.85374341403945</v>
+        <v>4.680124855409638</v>
       </c>
       <c r="K14">
-        <v>8.907971182408755</v>
+        <v>12.75298849702878</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.30148927150016</v>
+        <v>18.07427103050774</v>
       </c>
       <c r="N14">
-        <v>18.176559971949</v>
+        <v>11.24579090392929</v>
       </c>
       <c r="O14">
-        <v>20.11321668127896</v>
+        <v>12.47910186651243</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.230062474060398</v>
+        <v>14.76068789761185</v>
       </c>
       <c r="C15">
-        <v>6.289170088599332</v>
+        <v>7.108732276198959</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.69302425152082</v>
+        <v>21.54573418205494</v>
       </c>
       <c r="F15">
-        <v>39.30483296320515</v>
+        <v>34.44900766604799</v>
       </c>
       <c r="G15">
-        <v>25.53746183036872</v>
+        <v>19.1198870819479</v>
       </c>
       <c r="H15">
-        <v>13.50400667910741</v>
+        <v>7.816175468814269</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.854803908691334</v>
+        <v>4.683445418712543</v>
       </c>
       <c r="K15">
-        <v>8.881160046637433</v>
+        <v>12.69602025218627</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.2831107129146</v>
+        <v>17.97368682544819</v>
       </c>
       <c r="N15">
-        <v>18.18237773333923</v>
+        <v>11.26663066514534</v>
       </c>
       <c r="O15">
-        <v>20.12027934928463</v>
+        <v>12.48101902901066</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.039649863498601</v>
+        <v>14.31296131924071</v>
       </c>
       <c r="C16">
-        <v>6.245436965838983</v>
+        <v>6.990542345450986</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.59321942385352</v>
+        <v>20.98083842929722</v>
       </c>
       <c r="F16">
-        <v>39.21569275790959</v>
+        <v>33.68099899110183</v>
       </c>
       <c r="G16">
-        <v>25.57414131395871</v>
+        <v>18.93255985545399</v>
       </c>
       <c r="H16">
-        <v>13.52999144178389</v>
+        <v>7.858575017906971</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.860977643254855</v>
+        <v>4.702622159861254</v>
       </c>
       <c r="K16">
-        <v>8.725515199141491</v>
+        <v>12.36461162179189</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.17829145607274</v>
+        <v>17.38775161219228</v>
       </c>
       <c r="N16">
-        <v>18.21618568741044</v>
+        <v>11.38671371023058</v>
       </c>
       <c r="O16">
-        <v>20.16191629191468</v>
+        <v>12.49627211579035</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.921001887970629</v>
+        <v>14.03151800741535</v>
       </c>
       <c r="C17">
-        <v>6.218407234967022</v>
+        <v>6.917123013519751</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.5330017551254</v>
+        <v>20.63051084988034</v>
       </c>
       <c r="F17">
-        <v>39.16344948315381</v>
+        <v>33.2094906324225</v>
       </c>
       <c r="G17">
-        <v>25.59876139125848</v>
+        <v>18.82503892496908</v>
       </c>
       <c r="H17">
-        <v>13.54643050387247</v>
+        <v>7.88604416228483</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.864851268800339</v>
+        <v>4.714520360041168</v>
       </c>
       <c r="K17">
-        <v>8.62827259003598</v>
+        <v>12.15690398216207</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.11446024593796</v>
+        <v>17.03676719405311</v>
       </c>
       <c r="N17">
-        <v>18.2373447858331</v>
+        <v>11.46098063551485</v>
       </c>
       <c r="O17">
-        <v>20.188496600925</v>
+        <v>12.50933080261911</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.852105029324342</v>
+        <v>13.8671421989235</v>
       </c>
       <c r="C18">
-        <v>6.202789556730419</v>
+        <v>6.874567017532248</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.49874578546133</v>
+        <v>20.42765829012883</v>
       </c>
       <c r="F18">
-        <v>39.13430422223232</v>
+        <v>32.93822476438448</v>
       </c>
       <c r="G18">
-        <v>25.61369865683387</v>
+        <v>18.76587441905331</v>
       </c>
       <c r="H18">
-        <v>13.55606899047998</v>
+        <v>7.902364584322903</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.867111031582062</v>
+        <v>4.721413829042613</v>
       </c>
       <c r="K18">
-        <v>8.571705379638113</v>
+        <v>12.03582619430009</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.07792959787852</v>
+        <v>16.85990097290379</v>
       </c>
       <c r="N18">
-        <v>18.24966923250164</v>
+        <v>11.50392216672576</v>
       </c>
       <c r="O18">
-        <v>20.20416575241245</v>
+        <v>12.5181604537268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.828667555094921</v>
+        <v>13.81105794869963</v>
       </c>
       <c r="C19">
-        <v>6.197489783757612</v>
+        <v>6.86010295785965</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.48721332005246</v>
+        <v>20.35874726060603</v>
       </c>
       <c r="F19">
-        <v>39.12459194047659</v>
+        <v>32.84637394215821</v>
       </c>
       <c r="G19">
-        <v>25.61888931302155</v>
+        <v>18.7462983685674</v>
       </c>
       <c r="H19">
-        <v>13.55936388305082</v>
+        <v>7.907978473420208</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.86788160853282</v>
+        <v>4.723756484770162</v>
       </c>
       <c r="K19">
-        <v>8.552444556804293</v>
+        <v>11.9945555858134</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.06559337908753</v>
+        <v>16.79971662851716</v>
       </c>
       <c r="N19">
-        <v>18.25386860758174</v>
+        <v>11.51850054501893</v>
       </c>
       <c r="O19">
-        <v>20.20953643519668</v>
+        <v>12.52137258339983</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.933700311601482</v>
+        <v>14.0617364298764</v>
       </c>
       <c r="C20">
-        <v>6.221291999496697</v>
+        <v>6.924972685284843</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.53937293156554</v>
+        <v>20.66794477464169</v>
       </c>
       <c r="F20">
-        <v>39.16891748303053</v>
+        <v>33.25969195368834</v>
       </c>
       <c r="G20">
-        <v>25.59606013508018</v>
+        <v>18.83620653301839</v>
       </c>
       <c r="H20">
-        <v>13.54466158147202</v>
+        <v>7.883065781355474</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.864435629566849</v>
+        <v>4.713248624188134</v>
       </c>
       <c r="K20">
-        <v>8.63869028911734</v>
+        <v>12.17918159846901</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.12123643132334</v>
+        <v>17.06935777615146</v>
       </c>
       <c r="N20">
-        <v>18.23507640188576</v>
+        <v>11.45305159674544</v>
       </c>
       <c r="O20">
-        <v>20.18562765545663</v>
+        <v>12.50780327590706</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.278639302862111</v>
+        <v>14.87419230985559</v>
       </c>
       <c r="C21">
-        <v>6.300396652677328</v>
+        <v>7.138957445072515</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.71909675171928</v>
+        <v>21.69038297571786</v>
       </c>
       <c r="F21">
-        <v>39.32859647702384</v>
+        <v>34.64713123961746</v>
       </c>
       <c r="G21">
-        <v>25.52864845777346</v>
+        <v>19.17056925471071</v>
       </c>
       <c r="H21">
-        <v>13.4974519104353</v>
+        <v>7.805692249148781</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.853236582261816</v>
+        <v>4.678535145014915</v>
       </c>
       <c r="K21">
-        <v>8.920792100467406</v>
+        <v>12.78021863599556</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.31031079489712</v>
+        <v>18.12233609932191</v>
       </c>
       <c r="N21">
-        <v>18.1737784777032</v>
+        <v>11.23580915533924</v>
       </c>
       <c r="O21">
-        <v>20.10985053744402</v>
+        <v>12.47825950467858</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.497827646081113</v>
+        <v>15.38308686622685</v>
       </c>
       <c r="C22">
-        <v>6.3514031450448</v>
+        <v>7.275720549198944</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.83975007562245</v>
+        <v>22.34584558075451</v>
       </c>
       <c r="F22">
-        <v>39.44086032107748</v>
+        <v>35.5519998209415</v>
       </c>
       <c r="G22">
-        <v>25.49154763596107</v>
+        <v>19.41375410943163</v>
       </c>
       <c r="H22">
-        <v>13.46822739974464</v>
+        <v>7.760091031770957</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.846198802010735</v>
+        <v>4.65627671697146</v>
       </c>
       <c r="K22">
-        <v>9.099279709904991</v>
+        <v>13.15856905128102</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.4353034400673</v>
+        <v>18.78939149830759</v>
       </c>
       <c r="N22">
-        <v>18.135084214216</v>
+        <v>11.09573261997023</v>
       </c>
       <c r="O22">
-        <v>20.06372534313076</v>
+        <v>12.47158328790919</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.381433724410375</v>
+        <v>15.11349402129808</v>
       </c>
       <c r="C23">
-        <v>6.324246366934956</v>
+        <v>7.20301791697274</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.77507217501672</v>
+        <v>21.99720904361851</v>
       </c>
       <c r="F23">
-        <v>39.38022704469946</v>
+        <v>35.0692850427528</v>
       </c>
       <c r="G23">
-        <v>25.51071056578107</v>
+        <v>19.28167020351292</v>
       </c>
       <c r="H23">
-        <v>13.48367601505828</v>
+        <v>7.783958194482572</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.849929309976952</v>
+        <v>4.668118009733623</v>
       </c>
       <c r="K23">
-        <v>9.004565670439726</v>
+        <v>12.95796422563564</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.36847271403654</v>
+        <v>18.4358872748593</v>
       </c>
       <c r="N23">
-        <v>18.1556112584147</v>
+        <v>11.17032486389525</v>
       </c>
       <c r="O23">
-        <v>20.08803178328552</v>
+        <v>12.47394711113178</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.927961481556041</v>
+        <v>14.04808268848558</v>
       </c>
       <c r="C24">
-        <v>6.219988039495855</v>
+        <v>6.921424925120815</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.53649138688628</v>
+        <v>20.65102538814938</v>
       </c>
       <c r="F24">
-        <v>39.16644262615565</v>
+        <v>33.2369965109264</v>
       </c>
       <c r="G24">
-        <v>25.59727893494052</v>
+        <v>18.83114941050624</v>
       </c>
       <c r="H24">
-        <v>13.54546072737108</v>
+        <v>7.884410666180819</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.864623437992887</v>
+        <v>4.71382341060131</v>
       </c>
       <c r="K24">
-        <v>8.633982504145816</v>
+        <v>12.16911506920484</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.11817239609111</v>
+        <v>17.05462931288954</v>
       </c>
       <c r="N24">
-        <v>18.23610144042452</v>
+        <v>11.45663555254202</v>
       </c>
       <c r="O24">
-        <v>20.18692349788251</v>
+        <v>12.50848976269371</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.414160016510756</v>
+        <v>12.80334970817528</v>
       </c>
       <c r="C25">
-        <v>6.104856518901243</v>
+        <v>6.605309941018918</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.29375730743153</v>
+        <v>19.14791505868313</v>
       </c>
       <c r="F25">
-        <v>38.97045470074751</v>
+        <v>31.25912272755847</v>
       </c>
       <c r="G25">
-        <v>25.72031168885837</v>
+        <v>18.4469260873383</v>
       </c>
       <c r="H25">
-        <v>13.61910967085952</v>
+        <v>8.012517499247185</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.881688369654071</v>
+        <v>4.765041932135827</v>
       </c>
       <c r="K25">
-        <v>8.21010745760629</v>
+        <v>11.25682175154628</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.85531416824893</v>
+        <v>15.73321246136637</v>
       </c>
       <c r="N25">
-        <v>18.32882624915445</v>
+        <v>11.77413337027983</v>
       </c>
       <c r="O25">
-        <v>20.30815061395602</v>
+        <v>12.59566193664413</v>
       </c>
     </row>
   </sheetData>
